--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Jag2-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Jag2-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.74341666666666</v>
+        <v>12.01751833333333</v>
       </c>
       <c r="H2">
-        <v>56.23025</v>
+        <v>36.052555</v>
       </c>
       <c r="I2">
-        <v>0.759296164886796</v>
+        <v>0.5714697501126412</v>
       </c>
       <c r="J2">
-        <v>0.7720204290278171</v>
+        <v>0.6009086862203552</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.819868333333334</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N2">
-        <v>26.459605</v>
+        <v>8.414764</v>
       </c>
       <c r="O2">
-        <v>0.06009452733181694</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P2">
-        <v>0.08592393201160566</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q2">
-        <v>165.3144671168056</v>
+        <v>33.70819354689111</v>
       </c>
       <c r="R2">
-        <v>1487.83020405125</v>
+        <v>303.37374192202</v>
       </c>
       <c r="S2">
-        <v>0.04562954413373334</v>
+        <v>0.03180636038921662</v>
       </c>
       <c r="T2">
-        <v>0.06633503085535679</v>
+        <v>0.04632579343709056</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.74341666666666</v>
+        <v>12.01751833333333</v>
       </c>
       <c r="H3">
-        <v>56.23025</v>
+        <v>36.052555</v>
       </c>
       <c r="I3">
-        <v>0.759296164886796</v>
+        <v>0.5714697501126412</v>
       </c>
       <c r="J3">
-        <v>0.7720204290278171</v>
+        <v>0.6009086862203552</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>16.457622</v>
       </c>
       <c r="O3">
-        <v>0.03737822295894862</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P3">
-        <v>0.05344386636915803</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q3">
-        <v>102.8240221628333</v>
+        <v>65.92659136935667</v>
       </c>
       <c r="R3">
-        <v>925.4161994655</v>
+        <v>593.33932232421</v>
       </c>
       <c r="S3">
-        <v>0.02838114134301327</v>
+        <v>0.06220698007472342</v>
       </c>
       <c r="T3">
-        <v>0.04125975664322271</v>
+        <v>0.09060413307345486</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.74341666666666</v>
+        <v>12.01751833333333</v>
       </c>
       <c r="H4">
-        <v>56.23025</v>
+        <v>36.052555</v>
       </c>
       <c r="I4">
-        <v>0.759296164886796</v>
+        <v>0.5714697501126412</v>
       </c>
       <c r="J4">
-        <v>0.7720204290278171</v>
+        <v>0.6009086862203552</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06916233333333333</v>
+        <v>42.038395</v>
       </c>
       <c r="N4">
-        <v>0.207487</v>
+        <v>84.07679</v>
       </c>
       <c r="O4">
-        <v>0.0004712403375823902</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P4">
-        <v>0.0006737855263255827</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q4">
-        <v>1.296338431305555</v>
+        <v>505.1971826164083</v>
       </c>
       <c r="R4">
-        <v>11.66704588175</v>
+        <v>3031.18309569845</v>
       </c>
       <c r="S4">
-        <v>0.000357810981066268</v>
+        <v>0.4766937046199662</v>
       </c>
       <c r="T4">
-        <v>0.0005201761911066099</v>
+        <v>0.4628678839232618</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,61 +726,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.74341666666666</v>
+        <v>12.01751833333333</v>
       </c>
       <c r="H5">
-        <v>56.23025</v>
+        <v>36.052555</v>
       </c>
       <c r="I5">
-        <v>0.759296164886796</v>
+        <v>0.5714697501126412</v>
       </c>
       <c r="J5">
-        <v>0.7720204290278171</v>
+        <v>0.6009086862203552</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>132.35754</v>
+        <v>0.067261</v>
       </c>
       <c r="N5">
-        <v>264.71508</v>
+        <v>0.201783</v>
       </c>
       <c r="O5">
-        <v>0.9018234178214739</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P5">
-        <v>0.8596258536877913</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q5">
-        <v>2480.832521195</v>
+        <v>0.8083103006183333</v>
       </c>
       <c r="R5">
-        <v>14884.99512717</v>
+        <v>7.274792705564999</v>
       </c>
       <c r="S5">
-        <v>0.6847510625569477</v>
+        <v>0.0007627050287348874</v>
       </c>
       <c r="T5">
-        <v>0.6636487203674521</v>
+        <v>0.001110875786548077</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.74341666666666</v>
+        <v>0.6575503333333333</v>
       </c>
       <c r="H6">
-        <v>56.23025</v>
+        <v>1.972651</v>
       </c>
       <c r="I6">
-        <v>0.759296164886796</v>
+        <v>0.03126852934637925</v>
       </c>
       <c r="J6">
-        <v>0.7720204290278171</v>
+        <v>0.03287930968502149</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03413666666666666</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N6">
-        <v>0.10241</v>
+        <v>8.414764</v>
       </c>
       <c r="O6">
-        <v>0.0002325915501781441</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P6">
-        <v>0.000332562405119371</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q6">
-        <v>0.6398377669444443</v>
+        <v>1.844376957707111</v>
       </c>
       <c r="R6">
-        <v>5.758539902499999</v>
+        <v>16.599392619364</v>
       </c>
       <c r="S6">
-        <v>0.0001766058720353396</v>
+        <v>0.001740316286270101</v>
       </c>
       <c r="T6">
-        <v>0.0002567449706787795</v>
+        <v>0.002534761343529471</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>1.972651</v>
       </c>
       <c r="I7">
-        <v>0.02663737648258906</v>
+        <v>0.03126852934637925</v>
       </c>
       <c r="J7">
-        <v>0.02708376490131473</v>
+        <v>0.03287930968502149</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.819868333333334</v>
+        <v>5.485874</v>
       </c>
       <c r="N7">
-        <v>26.459605</v>
+        <v>16.457622</v>
       </c>
       <c r="O7">
-        <v>0.06009452733181694</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P7">
-        <v>0.08592393201160566</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q7">
-        <v>5.799507362539445</v>
+        <v>3.607238277324667</v>
       </c>
       <c r="R7">
-        <v>52.195566262855</v>
+        <v>32.465144495922</v>
       </c>
       <c r="S7">
-        <v>0.001600760549080846</v>
+        <v>0.003403716087566699</v>
       </c>
       <c r="T7">
-        <v>0.002327143573998878</v>
+        <v>0.004957494238937678</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>1.972651</v>
       </c>
       <c r="I8">
-        <v>0.02663737648258906</v>
+        <v>0.03126852934637925</v>
       </c>
       <c r="J8">
-        <v>0.02708376490131473</v>
+        <v>0.03287930968502149</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.485874</v>
+        <v>42.038395</v>
       </c>
       <c r="N8">
-        <v>16.457622</v>
+        <v>84.07679</v>
       </c>
       <c r="O8">
-        <v>0.03737822295894862</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P8">
-        <v>0.05344386636915803</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q8">
-        <v>3.607238277324667</v>
+        <v>27.64236064504833</v>
       </c>
       <c r="R8">
-        <v>32.465144495922</v>
+        <v>165.85416387029</v>
       </c>
       <c r="S8">
-        <v>0.0009956577972076682</v>
+        <v>0.02608276481687029</v>
       </c>
       <c r="T8">
-        <v>0.001447461112159557</v>
+        <v>0.02532627144148608</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>1.972651</v>
       </c>
       <c r="I9">
-        <v>0.02663737648258906</v>
+        <v>0.03126852934637925</v>
       </c>
       <c r="J9">
-        <v>0.02708376490131473</v>
+        <v>0.03287930968502149</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.06916233333333333</v>
+        <v>0.067261</v>
       </c>
       <c r="N9">
-        <v>0.207487</v>
+        <v>0.201783</v>
       </c>
       <c r="O9">
-        <v>0.0004712403375823902</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P9">
-        <v>0.0006737855263255827</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q9">
-        <v>0.04547771533744444</v>
+        <v>0.04422749297033333</v>
       </c>
       <c r="R9">
-        <v>0.4092994380369999</v>
+        <v>0.398047436733</v>
       </c>
       <c r="S9">
-        <v>1.255260628596449E-05</v>
+        <v>4.173215567215429E-05</v>
       </c>
       <c r="T9">
-        <v>1.824864878891069E-05</v>
+        <v>6.078266106826136E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6575503333333333</v>
+        <v>3.025265666666666</v>
       </c>
       <c r="H10">
-        <v>1.972651</v>
+        <v>9.075797</v>
       </c>
       <c r="I10">
-        <v>0.02663737648258906</v>
+        <v>0.1438606346668928</v>
       </c>
       <c r="J10">
-        <v>0.02708376490131473</v>
+        <v>0.1512715326742485</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.35754</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N10">
-        <v>264.71508</v>
+        <v>8.414764</v>
       </c>
       <c r="O10">
-        <v>0.9018234178214739</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P10">
-        <v>0.8596258536877913</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q10">
-        <v>87.03174454618001</v>
+        <v>8.485632207434222</v>
       </c>
       <c r="R10">
-        <v>522.19046727708</v>
+        <v>76.37068986690799</v>
       </c>
       <c r="S10">
-        <v>0.02402220990132581</v>
+        <v>0.008006868589518023</v>
       </c>
       <c r="T10">
-        <v>0.02328190452437211</v>
+        <v>0.01166196118691078</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6575503333333333</v>
+        <v>3.025265666666666</v>
       </c>
       <c r="H11">
-        <v>1.972651</v>
+        <v>9.075797</v>
       </c>
       <c r="I11">
-        <v>0.02663737648258906</v>
+        <v>0.1438606346668928</v>
       </c>
       <c r="J11">
-        <v>0.02708376490131473</v>
+        <v>0.1512715326742485</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.03413666666666666</v>
+        <v>5.485874</v>
       </c>
       <c r="N11">
-        <v>0.10241</v>
+        <v>16.457622</v>
       </c>
       <c r="O11">
-        <v>0.0002325915501781441</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P11">
-        <v>0.000332562405119371</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q11">
-        <v>0.02244657654555555</v>
+        <v>16.59622626385933</v>
       </c>
       <c r="R11">
-        <v>0.20201918891</v>
+        <v>149.366036374734</v>
       </c>
       <c r="S11">
-        <v>6.195628688764227E-06</v>
+        <v>0.01565985886828921</v>
       </c>
       <c r="T11">
-        <v>9.00704199526883E-06</v>
+        <v>0.02280850051086982</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.780015</v>
+        <v>3.025265666666666</v>
       </c>
       <c r="H12">
-        <v>5.340045</v>
+        <v>9.075797</v>
       </c>
       <c r="I12">
-        <v>0.07210844143184338</v>
+        <v>0.1438606346668928</v>
       </c>
       <c r="J12">
-        <v>0.07331683269997644</v>
+        <v>0.1512715326742485</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.819868333333334</v>
+        <v>42.038395</v>
       </c>
       <c r="N12">
-        <v>26.459605</v>
+        <v>84.07679</v>
       </c>
       <c r="O12">
-        <v>0.06009452733181694</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P12">
-        <v>0.08592393201160566</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q12">
-        <v>15.69949793135833</v>
+        <v>127.1773130752717</v>
       </c>
       <c r="R12">
-        <v>141.295481382225</v>
+        <v>763.06387845163</v>
       </c>
       <c r="S12">
-        <v>0.004333322704480632</v>
+        <v>0.1200019053936337</v>
       </c>
       <c r="T12">
-        <v>0.006299670548219042</v>
+        <v>0.1165214213613179</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.780015</v>
+        <v>3.025265666666666</v>
       </c>
       <c r="H13">
-        <v>5.340045</v>
+        <v>9.075797</v>
       </c>
       <c r="I13">
-        <v>0.07210844143184338</v>
+        <v>0.1438606346668928</v>
       </c>
       <c r="J13">
-        <v>0.07331683269997644</v>
+        <v>0.1512715326742485</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>5.485874</v>
+        <v>0.067261</v>
       </c>
       <c r="N13">
-        <v>16.457622</v>
+        <v>0.201783</v>
       </c>
       <c r="O13">
-        <v>0.03737822295894862</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P13">
-        <v>0.05344386636915803</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q13">
-        <v>9.764938008109999</v>
+        <v>0.2034823940056666</v>
       </c>
       <c r="R13">
-        <v>87.88444207299</v>
+        <v>1.831341546051</v>
       </c>
       <c r="S13">
-        <v>0.00269528540106173</v>
+        <v>0.0001920018154518315</v>
       </c>
       <c r="T13">
-        <v>0.003918335009427456</v>
+        <v>0.0002796496151500409</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.780015</v>
+        <v>3.090697</v>
       </c>
       <c r="H14">
-        <v>5.340045</v>
+        <v>6.181394</v>
       </c>
       <c r="I14">
-        <v>0.07210844143184338</v>
+        <v>0.146972094676554</v>
       </c>
       <c r="J14">
-        <v>0.07331683269997644</v>
+        <v>0.1030288518400537</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.06916233333333333</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N14">
-        <v>0.207487</v>
+        <v>8.414764</v>
       </c>
       <c r="O14">
-        <v>0.0004712403375823902</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P14">
-        <v>0.0006737855263255827</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q14">
-        <v>0.1231099907683333</v>
+        <v>8.669161950169332</v>
       </c>
       <c r="R14">
-        <v>1.107989916915</v>
+        <v>52.014971701016</v>
       </c>
       <c r="S14">
-        <v>3.398040628288189E-05</v>
+        <v>0.008180043492274316</v>
       </c>
       <c r="T14">
-        <v>4.939982070927831E-05</v>
+        <v>0.007942793003083166</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.780015</v>
+        <v>3.090697</v>
       </c>
       <c r="H15">
-        <v>5.340045</v>
+        <v>6.181394</v>
       </c>
       <c r="I15">
-        <v>0.07210844143184338</v>
+        <v>0.146972094676554</v>
       </c>
       <c r="J15">
-        <v>0.07331683269997644</v>
+        <v>0.1030288518400537</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>132.35754</v>
+        <v>5.485874</v>
       </c>
       <c r="N15">
-        <v>264.71508</v>
+        <v>16.457622</v>
       </c>
       <c r="O15">
-        <v>0.9018234178214739</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P15">
-        <v>0.8596258536877913</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q15">
-        <v>235.5984065631</v>
+        <v>16.955174314178</v>
       </c>
       <c r="R15">
-        <v>1413.5904393786</v>
+        <v>101.731045885068</v>
       </c>
       <c r="S15">
-        <v>0.06502908110584457</v>
+        <v>0.01599855488988291</v>
       </c>
       <c r="T15">
-        <v>0.06302504489940222</v>
+        <v>0.01553453963402747</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.780015</v>
+        <v>3.090697</v>
       </c>
       <c r="H16">
-        <v>5.340045</v>
+        <v>6.181394</v>
       </c>
       <c r="I16">
-        <v>0.07210844143184338</v>
+        <v>0.146972094676554</v>
       </c>
       <c r="J16">
-        <v>0.07331683269997644</v>
+        <v>0.1030288518400537</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.03413666666666666</v>
+        <v>42.038395</v>
       </c>
       <c r="N16">
-        <v>0.10241</v>
+        <v>84.07679</v>
       </c>
       <c r="O16">
-        <v>0.0002325915501781441</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P16">
-        <v>0.000332562405119371</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q16">
-        <v>0.06076377871666665</v>
+        <v>129.927941311315</v>
       </c>
       <c r="R16">
-        <v>0.5468740084499999</v>
+        <v>519.71176524526</v>
       </c>
       <c r="S16">
-        <v>1.677181417356236E-05</v>
+        <v>0.1225973418073545</v>
       </c>
       <c r="T16">
-        <v>2.438242221843871E-05</v>
+        <v>0.07936105389689987</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.22057</v>
+        <v>3.090697</v>
       </c>
       <c r="H17">
-        <v>2.44114</v>
+        <v>6.181394</v>
       </c>
       <c r="I17">
-        <v>0.04944531386447028</v>
+        <v>0.146972094676554</v>
       </c>
       <c r="J17">
-        <v>0.03351594471155589</v>
+        <v>0.1030288518400537</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>8.819868333333334</v>
+        <v>0.067261</v>
       </c>
       <c r="N17">
-        <v>26.459605</v>
+        <v>0.201783</v>
       </c>
       <c r="O17">
-        <v>0.06009452733181694</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P17">
-        <v>0.08592393201160566</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q17">
-        <v>10.76526669161667</v>
+        <v>0.207883370917</v>
       </c>
       <c r="R17">
-        <v>64.5916001497</v>
+        <v>1.247300225502</v>
       </c>
       <c r="S17">
-        <v>0.002971392765458676</v>
+        <v>0.0001961544870422496</v>
       </c>
       <c r="T17">
-        <v>0.002879821754700463</v>
+        <v>0.0001904653060431796</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,25 +1523,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.22057</v>
+        <v>2.238110333333333</v>
       </c>
       <c r="H18">
-        <v>2.44114</v>
+        <v>6.714331</v>
       </c>
       <c r="I18">
-        <v>0.04944531386447028</v>
+        <v>0.1064289911975326</v>
       </c>
       <c r="J18">
-        <v>0.03351594471155589</v>
+        <v>0.1119116195803211</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.485874</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N18">
-        <v>16.457622</v>
+        <v>8.414764</v>
       </c>
       <c r="O18">
-        <v>0.03737822295894862</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P18">
-        <v>0.05344386636915803</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q18">
-        <v>6.695893228179999</v>
+        <v>6.277723420320443</v>
       </c>
       <c r="R18">
-        <v>40.17535936908</v>
+        <v>56.49951078288399</v>
       </c>
       <c r="S18">
-        <v>0.001848177965901363</v>
+        <v>0.005923531121677483</v>
       </c>
       <c r="T18">
-        <v>0.001791221670400482</v>
+        <v>0.008627591330884974</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.22057</v>
+        <v>2.238110333333333</v>
       </c>
       <c r="H19">
-        <v>2.44114</v>
+        <v>6.714331</v>
       </c>
       <c r="I19">
-        <v>0.04944531386447028</v>
+        <v>0.1064289911975326</v>
       </c>
       <c r="J19">
-        <v>0.03351594471155589</v>
+        <v>0.1119116195803211</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.06916233333333333</v>
+        <v>5.485874</v>
       </c>
       <c r="N19">
-        <v>0.207487</v>
+        <v>16.457622</v>
       </c>
       <c r="O19">
-        <v>0.0004712403375823902</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P19">
-        <v>0.0006737855263255827</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q19">
-        <v>0.08441746919666665</v>
+        <v>12.27799128676467</v>
       </c>
       <c r="R19">
-        <v>0.5065048151799999</v>
+        <v>110.501921580882</v>
       </c>
       <c r="S19">
-        <v>2.330062639736021E-05</v>
+        <v>0.01158526087075099</v>
       </c>
       <c r="T19">
-        <v>2.258255844777481E-05</v>
+        <v>0.01687387036572646</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.22057</v>
+        <v>2.238110333333333</v>
       </c>
       <c r="H20">
-        <v>2.44114</v>
+        <v>6.714331</v>
       </c>
       <c r="I20">
-        <v>0.04944531386447028</v>
+        <v>0.1064289911975326</v>
       </c>
       <c r="J20">
-        <v>0.03351594471155589</v>
+        <v>0.1119116195803211</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>132.35754</v>
+        <v>42.038395</v>
       </c>
       <c r="N20">
-        <v>264.71508</v>
+        <v>84.07679</v>
       </c>
       <c r="O20">
-        <v>0.9018234178214739</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P20">
-        <v>0.8596258536877913</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q20">
-        <v>161.5516425978</v>
+        <v>94.08656624624832</v>
       </c>
       <c r="R20">
-        <v>646.2065703912</v>
+        <v>564.51939747749</v>
       </c>
       <c r="S20">
-        <v>0.0445909419445121</v>
+        <v>0.08877815506930598</v>
       </c>
       <c r="T20">
-        <v>0.02881117258482405</v>
+        <v>0.08620327136122137</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,362 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.238110333333333</v>
+      </c>
+      <c r="H21">
+        <v>6.714331</v>
+      </c>
+      <c r="I21">
+        <v>0.1064289911975326</v>
+      </c>
+      <c r="J21">
+        <v>0.1119116195803211</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.22057</v>
-      </c>
-      <c r="H21">
-        <v>2.44114</v>
-      </c>
-      <c r="I21">
-        <v>0.04944531386447028</v>
-      </c>
-      <c r="J21">
-        <v>0.03351594471155589</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.03413666666666666</v>
+        <v>0.067261</v>
       </c>
       <c r="N21">
-        <v>0.10241</v>
+        <v>0.201783</v>
       </c>
       <c r="O21">
-        <v>0.0002325915501781441</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P21">
-        <v>0.000332562405119371</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q21">
-        <v>0.04166619123333332</v>
+        <v>0.1505375391303333</v>
       </c>
       <c r="R21">
-        <v>0.2499971474</v>
+        <v>1.354837852173</v>
       </c>
       <c r="S21">
-        <v>1.150056220078202E-05</v>
+        <v>0.0001420441357981576</v>
       </c>
       <c r="T21">
-        <v>1.114614318312289E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>2.283699333333333</v>
-      </c>
-      <c r="H22">
-        <v>6.851098</v>
-      </c>
-      <c r="I22">
-        <v>0.09251270333430135</v>
-      </c>
-      <c r="J22">
-        <v>0.09406302865933586</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>8.819868333333334</v>
-      </c>
-      <c r="N22">
-        <v>26.459605</v>
-      </c>
-      <c r="O22">
-        <v>0.06009452733181694</v>
-      </c>
-      <c r="P22">
-        <v>0.08592393201160566</v>
-      </c>
-      <c r="Q22">
-        <v>20.14192743292111</v>
-      </c>
-      <c r="R22">
-        <v>181.27734689629</v>
-      </c>
-      <c r="S22">
-        <v>0.005559507179063445</v>
-      </c>
-      <c r="T22">
-        <v>0.008082265279330489</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>2.283699333333333</v>
-      </c>
-      <c r="H23">
-        <v>6.851098</v>
-      </c>
-      <c r="I23">
-        <v>0.09251270333430135</v>
-      </c>
-      <c r="J23">
-        <v>0.09406302865933586</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>5.485874</v>
-      </c>
-      <c r="N23">
-        <v>16.457622</v>
-      </c>
-      <c r="O23">
-        <v>0.03737822295894862</v>
-      </c>
-      <c r="P23">
-        <v>0.05344386636915803</v>
-      </c>
-      <c r="Q23">
-        <v>12.52808679655067</v>
-      </c>
-      <c r="R23">
-        <v>112.752781168956</v>
-      </c>
-      <c r="S23">
-        <v>0.003457960451764585</v>
-      </c>
-      <c r="T23">
-        <v>0.005027091933947828</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>2.283699333333333</v>
-      </c>
-      <c r="H24">
-        <v>6.851098</v>
-      </c>
-      <c r="I24">
-        <v>0.09251270333430135</v>
-      </c>
-      <c r="J24">
-        <v>0.09406302865933586</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.06916233333333333</v>
-      </c>
-      <c r="N24">
-        <v>0.207487</v>
-      </c>
-      <c r="O24">
-        <v>0.0004712403375823902</v>
-      </c>
-      <c r="P24">
-        <v>0.0006737855263255827</v>
-      </c>
-      <c r="Q24">
-        <v>0.1579459745251111</v>
-      </c>
-      <c r="R24">
-        <v>1.421513770726</v>
-      </c>
-      <c r="S24">
-        <v>4.359571754991568E-05</v>
-      </c>
-      <c r="T24">
-        <v>6.337830727300899E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2.283699333333333</v>
-      </c>
-      <c r="H25">
-        <v>6.851098</v>
-      </c>
-      <c r="I25">
-        <v>0.09251270333430135</v>
-      </c>
-      <c r="J25">
-        <v>0.09406302865933586</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>132.35754</v>
-      </c>
-      <c r="N25">
-        <v>264.71508</v>
-      </c>
-      <c r="O25">
-        <v>0.9018234178214739</v>
-      </c>
-      <c r="P25">
-        <v>0.8596258536877913</v>
-      </c>
-      <c r="Q25">
-        <v>302.26482585964</v>
-      </c>
-      <c r="R25">
-        <v>1813.58895515784</v>
-      </c>
-      <c r="S25">
-        <v>0.0834301223128437</v>
-      </c>
-      <c r="T25">
-        <v>0.08085901131174077</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>2.283699333333333</v>
-      </c>
-      <c r="H26">
-        <v>6.851098</v>
-      </c>
-      <c r="I26">
-        <v>0.09251270333430135</v>
-      </c>
-      <c r="J26">
-        <v>0.09406302865933586</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.03413666666666666</v>
-      </c>
-      <c r="N26">
-        <v>0.10241</v>
-      </c>
-      <c r="O26">
-        <v>0.0002325915501781441</v>
-      </c>
-      <c r="P26">
-        <v>0.000332562405119371</v>
-      </c>
-      <c r="Q26">
-        <v>0.07795788290888887</v>
-      </c>
-      <c r="R26">
-        <v>0.7016209461799999</v>
-      </c>
-      <c r="S26">
-        <v>2.151767307969591E-05</v>
-      </c>
-      <c r="T26">
-        <v>3.128182704376106E-05</v>
+        <v>0.0002068865224883268</v>
       </c>
     </row>
   </sheetData>
